--- a/medicine/Enfance/Hannelore_Valencak/Hannelore_Valencak.xlsx
+++ b/medicine/Enfance/Hannelore_Valencak/Hannelore_Valencak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hannelore Valencak (Donawitz, 23 janvier 1929 - Vienne, 9 avril 2004) est une physicienne, écrivaine, poétesse et auteure de littérature jeunesse autrichienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a étudié la physique à l'Université de Graz, dont elle est ressortie diplômée en 1955. 
 Elle a reçu plusieurs prix pour sa carrière d'écrivain.
@@ -543,7 +557,9 @@
           <t>Quelques ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Nur dieses eine Leben, Gedichte, 1966
  Regenzauber , 1976</t>
@@ -574,12 +590,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1957 : Prix autrichien pour la promotion de la littérature (de)
 1963 : Prix d'encouragement, Prix Peter-Rosegger
 1966 : Prix Peter-Rosegger
-1978 : (international) « Honor List »[1], de l' IBBY, catégorie Illustration, pour  Regenzauber </t>
+1978 : (international) « Honor List », de l' IBBY, catégorie Illustration, pour  Regenzauber </t>
         </is>
       </c>
     </row>
